--- a/final-reports/report/tables_and_code/optimization-approaches.xlsx
+++ b/final-reports/report/tables_and_code/optimization-approaches.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\catar\Projects\Research Projects\ThesisReport\MscThesis\final-reports\report\tables_and_code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F7F41D58-A0A1-4CCA-9573-DE9136BFF624}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DE01D93-5AAC-40C0-AA38-581A01500FEA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4545" yWindow="-16320" windowWidth="29040" windowHeight="16440" xr2:uid="{9E4F068C-8C37-4C7B-A2FB-E7978801716D}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="25440" windowHeight="15990" xr2:uid="{9E4F068C-8C37-4C7B-A2FB-E7978801716D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -57,9 +57,6 @@
     <t>Ease of use</t>
   </si>
   <si>
-    <t>Ease of comprehension</t>
-  </si>
-  <si>
     <t>Support in architecture</t>
   </si>
   <si>
@@ -156,10 +153,10 @@
     <t>Obtain different trade-offs</t>
   </si>
   <si>
-    <t>Results comprehension</t>
-  </si>
-  <si>
     <t>Search aims at a single optima</t>
+  </si>
+  <si>
+    <t>Ease of comprehension of results</t>
   </si>
   <si>
     <r>
@@ -168,7 +165,7 @@
         <i/>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="CMU Concrete"/>
+        <rFont val="CMU Serif"/>
       </rPr>
       <t>A priori</t>
     </r>
@@ -177,7 +174,7 @@
         <b/>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="CMU Concrete"/>
+        <rFont val="CMU Serif"/>
       </rPr>
       <t xml:space="preserve"> preference articulation</t>
     </r>
@@ -191,7 +188,7 @@
         <i/>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="CMU Concrete"/>
+        <rFont val="CMU Serif"/>
       </rPr>
       <t>a priori</t>
     </r>
@@ -199,7 +196,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="CMU Concrete"/>
+        <rFont val="CMU Serif"/>
       </rPr>
       <t>)</t>
     </r>
@@ -213,7 +210,7 @@
         <i/>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="CMU Concrete"/>
+        <rFont val="CMU Serif"/>
       </rPr>
       <t>a posteriori</t>
     </r>
@@ -221,10 +218,13 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="CMU Concrete"/>
+        <rFont val="CMU Serif"/>
       </rPr>
       <t>)</t>
     </r>
+  </si>
+  <si>
+    <t>Results representation</t>
   </si>
 </sst>
 </file>
@@ -242,26 +242,26 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="CMU Concrete"/>
+      <name val="CMU Serif"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="CMU Concrete"/>
+      <name val="CMU Serif"/>
     </font>
     <font>
       <b/>
       <i/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="CMU Concrete"/>
+      <name val="CMU Serif"/>
     </font>
     <font>
       <i/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="CMU Concrete"/>
+      <name val="CMU Serif"/>
     </font>
   </fonts>
   <fills count="3">
@@ -330,7 +330,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -360,6 +360,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -371,6 +374,10 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -686,10 +693,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DECC286C-0530-4960-BC31-76449B3909FB}">
-  <dimension ref="B2:F15"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -702,78 +709,86 @@
     <col min="6" max="6" width="32.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="16"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+    </row>
+    <row r="2" spans="1:6" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="2"/>
       <c r="C2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6" ht="34.5" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="34.5" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="B4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D4" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="B4" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>27</v>
-      </c>
       <c r="E4" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" ht="34.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:6" ht="34.5" x14ac:dyDescent="0.25">
       <c r="B5" s="8" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D6" s="7">
         <v>1</v>
@@ -782,154 +797,154 @@
         <v>1</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="8" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F7" s="9" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="2:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C10" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="10" t="s">
+      <c r="D11" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F10" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="8" t="s">
+      <c r="E11" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B12" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C12" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="9" t="s">
         <v>21</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B12" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>22</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>5</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="F14" s="12" t="s">
+      <c r="C14" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" s="13" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="2:6" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="13"/>
-      <c r="C15" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14" t="s">
-        <v>41</v>
+    <row r="15" spans="1:6" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="14"/>
+      <c r="C15" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
